--- a/medicine/Enfance/Michel_Honaker/Michel_Honaker.xlsx
+++ b/medicine/Enfance/Michel_Honaker/Michel_Honaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Honaker, né le 6 juin 1958 à Mont-de-Marsan, est un romancier français, spécialisé dans la littérature populaire et la littérature d'enfance et de jeunesse. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Après des études hôtelières, il choisit de se consacrer à l'écriture »[1]. 
-En 1978, il signe son premier roman aux Éditions Fleuve Noir, Planeta non grata, un récit de science-fiction fantastique. Dans les années 1980, il fait partie avec Serge Brussolo, Pierre Pelot et Michel Pagel de la jeune génération des collections anticipation et espionnage de cet éditeur pour lequel il écrit une trentaine de romans avant de se tourner vers la littérature pour la jeunesse, où il s'impose comme auteur de récits d'aventures et fantastiques : La Sorcière de midi, Le Prince d'Ebène, Croisière en meurtre majeur font rapidement de lui un auteur à succès. Il reçoit de nombreux prix dont le Totem au salon du livre et de la presse jeunesse en 1993 pour Croisière en meurtre majeur, un roman policier historique pour la jeunesse où « le jeune Sylvain enquête en compagnie de Tchaïkovski sur l'étrange disparition d'un passager lors d'une croisière »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Après des études hôtelières, il choisit de se consacrer à l'écriture ». 
+En 1978, il signe son premier roman aux Éditions Fleuve Noir, Planeta non grata, un récit de science-fiction fantastique. Dans les années 1980, il fait partie avec Serge Brussolo, Pierre Pelot et Michel Pagel de la jeune génération des collections anticipation et espionnage de cet éditeur pour lequel il écrit une trentaine de romans avant de se tourner vers la littérature pour la jeunesse, où il s'impose comme auteur de récits d'aventures et fantastiques : La Sorcière de midi, Le Prince d'Ebène, Croisière en meurtre majeur font rapidement de lui un auteur à succès. Il reçoit de nombreux prix dont le Totem au salon du livre et de la presse jeunesse en 1993 pour Croisière en meurtre majeur, un roman policier historique pour la jeunesse où « le jeune Sylvain enquête en compagnie de Tchaïkovski sur l'étrange disparition d'un passager lors d'une croisière ».
 Tout en restant fidèle au fantastique et à l'anticipation, l'auteur explore le genre policier, et le sous-genre du roman policier historique. Il publie en outre neuf biographies de compositeurs de musique classique chez Rageot Éditeur.
 Honaker est un autodidacte qui aime composer des personnages sombres et inquiétants, complexes dans leurs relations, comme Ebenezer Graymes de la série du Le Commandeur - son « double », dit-il.
 À ce jour auteur de plus d'une centaine d'ouvrages parus chez Hachette, Gallimard, Flammarion, Rageot et Magnard, il est traduit dans une douzaine de langues, dont le chinois et le russe.[réf. nécessaire]
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Le Commandeur (Le Chasseur noir chez Flammarion)
-Le Démon du Bronx, édition Média 1000, 1988 ; réédition sous le titre Bronx ceremonial, Fleuve noir, coll. « Anticipation » no 1723, 1989 ; réédition sous le titre Magie  de sang, édition Média 1000, 1988 ; réédition sous le titre The Verb of Life, Fleuve noir, coll. « Anticipation » no 1735, 1990 ; réédition sous le titre La Créature du néant, Rageot, coll. « Cascade policier », 1997
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Le Commandeur (Le Chasseur noir chez Flammarion)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Démon du Bronx, édition Média 1000, 1988 ; réédition sous le titre Bronx ceremonial, Fleuve noir, coll. « Anticipation » no 1723, 1989 ; réédition sous le titre Magie  de sang, édition Média 1000, 1988 ; réédition sous le titre The Verb of Life, Fleuve noir, coll. « Anticipation » no 1735, 1990 ; réédition sous le titre La Créature du néant, Rageot, coll. « Cascade policier », 1997
 La Maison des cauchemars, édition Média 1000, 1988 ; réédition sous le titre Evil Game, Fleuve noir, coll. « Anticipation » no 1783, 1990 ; réédition sous le titre Le Grand Maître des mémoires, Rageot, coll. « Cascade policier », 1997
 Return of Emeth, Fleuve noir, coll. « Anticipation » no 1748, 1990
 King of Ice, Fleuve noir, coll. « Anticipation » no 1759, 1990 ; réédition sous le titre Le Chant de la reine froide, Rageot, coll. « Cascade policier », 1996
@@ -566,30 +588,258 @@
 Le Serment du diable, Rageot, coll. « Cascade policier », 2002 ; réédition sous le titre Chasseur noir, Flammarion, 2008
 Le Seigneur des cauchemars, Rageot, coll. « Cascade policier », 2003
 Le cérémonial des ombres, Flammarion, 2009
-L'Enchanteur de sable, Flammarion, 2010
-Série Vorkul (Vorkeul chez Flammarion)
-Le Chant du Vorkul, éditions du Fleuve noir, coll. « Anticipation » no 1441, 1986 ; réédition sous le titre Le Chant du Vorkeul, Flammarion, coll. « Flammarion Tribal », 1999
+L'Enchanteur de sable, Flammarion, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Vorkul (Vorkeul chez Flammarion)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Chant du Vorkul, éditions du Fleuve noir, coll. « Anticipation » no 1441, 1986 ; réédition sous le titre Le Chant du Vorkeul, Flammarion, coll. « Flammarion Tribal », 1999
 Le Rêve du Vorkul, éditions du Fleuve noir, coll. « Anticipation » no 1496, 1986 ; réédition sous le titre Le Rêve du Vorkeul, Flammarion, coll. « Flammarion Tribal », 1999
-La Haine du Vorkul, éditions du Fleuve noir, coll. « Anticipation » no 1575, 1987 ; réédition sous le titre La Haine du Vorkeul, Flammarion, coll. « Flammarion Tribal », 1999
-Série Le Chevalier de Terre-Noire
-L'Adieu au domaine, Rageot, coll. « Cascade pluriel », 1991 ; réédition, Rageot coll. « Cascade pluriel », 1994 ; réédition sous le titre Terre noire, tome 1 : Les Exilés du Tsar, Flammarion 2009
+La Haine du Vorkul, éditions du Fleuve noir, coll. « Anticipation » no 1575, 1987 ; réédition sous le titre La Haine du Vorkeul, Flammarion, coll. « Flammarion Tribal », 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Le Chevalier de Terre-Noire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Adieu au domaine, Rageot, coll. « Cascade pluriel », 1991 ; réédition, Rageot coll. « Cascade pluriel », 1994 ; réédition sous le titre Terre noire, tome 1 : Les Exilés du Tsar, Flammarion 2009
 Le Bras de la vengeance, Rageot, coll. « Cascade pluriel », 1991 ; réédition sous le titre Terre noire, Tome 2 : Le Bras de la vengeance, Flammarion 2009
-Les Héritiers du secret, Rageot, coll. « Cascade pluriel », 1993 ; réédition sous le titre Terre noire, Tome 3 : Les Héritiers du secret, Flammarion 2010
-Série Parsifal Crusader
-Parsifal Crusader et l’Hydre de Tswamba Salu, Fleuve noir, coll. « Aventures et Mystères » no 1, 1995
+Les Héritiers du secret, Rageot, coll. « Cascade pluriel », 1993 ; réédition sous le titre Terre noire, Tome 3 : Les Héritiers du secret, Flammarion 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Parsifal Crusader</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parsifal Crusader et l’Hydre de Tswamba Salu, Fleuve noir, coll. « Aventures et Mystères » no 1, 1995
 Parsifal Crusader et la Couronne de sang, Fleuve noir, coll. « Aventures et Mystères » no 9, 1995
 Parsifal Crusader et la Forteresse de glace, Fleuve noir, 1996
-Parsifal Crusader et la Citadelle de cristal, Fleuve noir, coll. « SF » no 1, 1997
-Série Odyssée
-La Malédiction des pierres noires, Flammarion, coll. « Grand Format », 2006
+Parsifal Crusader et la Citadelle de cristal, Fleuve noir, coll. « SF » no 1, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Odyssée</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Malédiction des pierres noires, Flammarion, coll. « Grand Format », 2006
 Les Naufragés de Poséidon, Flammarion, coll. « Grand Format », 2006
 Le Sortilège des ombres, Flammarion, coll. « Grand Format », 2006
-La Guerre des dieux, Flammarion, coll. « Grand Format », 2007
-Série Les Survivants de Troie
-Le Prince sans couronne, Flammarion, 2008
-La Forteresse des Oracles, Flammarion, 2008
-Autres romans
-La Chair à espions, éditions du Fleuve noir, coll. « Espionnage » no 1712, 1983
+La Guerre des dieux, Flammarion, coll. « Grand Format », 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les Survivants de Troie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Prince sans couronne, Flammarion, 2008
+La Forteresse des Oracles, Flammarion, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Chair à espions, éditions du Fleuve noir, coll. « Espionnage » no 1712, 1983
 Planeta non grata, éditions du Fleuve noir, coll. « Anticipation » no 1194, 1983
 La Ballade du Voivode, éditions du Fleuve noir, coll. « Espionnage » no 1768, 1984
 El Borracho, éditions du Fleuve noir, coll. « Espionnage » no 1796, 1985
@@ -605,34 +855,299 @@
 Le Fouilleur d'âme, éd. Patrick Siry, coll. « Science-Fiction » no 3, 1988  (ISBN 2-7391-0002-7); rééd. Fleuve noir, coll. « Anticipation » no 1835, 1991
 L’Oreille absolue, éditions du Fleuve noir, coll. « Anticipation » no 1863, 1992
 Transgenic World, Rageot, coll. « Romans poche » no 112, 2006
-La nuit appartient au tigre, éditions Denöel, 2016
-Ouvrages de littérature d'enfance et de jeunesse
-Série Sylvain
-Croisière en meurtre majeur, Rageot, coll. « Cascade policier », 1993
-Assassinat rue Morskaïa, Rageot, coll. « Heure noire », 2004
-Série Rocambole (2002-2005)
-Rocambole et le Spectre de Kerloven, Gallimard, coll. « Hors-piste » no 4, 2002
+La nuit appartient au tigre, éditions Denöel, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Sylvain</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Croisière en meurtre majeur, Rageot, coll. « Cascade policier », 1993
+Assassinat rue Morskaïa, Rageot, coll. « Heure noire », 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Rocambole (2002-2005)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rocambole et le Spectre de Kerloven, Gallimard, coll. « Hors-piste » no 4, 2002
 Rocambole et les Marionnettes de la Mort, Gallimard coll. « Hors-piste » no 13, 2003
 Rocambole et le Pacte de sang, Gallimard, coll. « Hors-piste » no 19, 2004
 Rocambole et le Diable de Montrouge, Gallimard, coll. « Hors-piste » no 25, 2005
-Rocambole et la Sorcière du Marais, Gallimard, coll. « Hors-piste » no 32, 2005
-Série Chasseur noir
-Chasseur noir, Flammarion, coll. « Tribal », 2008
+Rocambole et la Sorcière du Marais, Gallimard, coll. « Hors-piste » no 32, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Chasseur noir</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chasseur noir, Flammarion, coll. « Tribal », 2008
 Le Cérémonial des ombres, Flammarion, coll. « Tribal », 2009
-L'Enchanteur de sable, Flammarion, coll. « Tribal », 2010
-Série L'Agence Pinkerton
-L'Agence Pinkerton, tome 1 : Le Châtiment des Hommes-tonnerre, Flammarion, 2011
+L'Enchanteur de sable, Flammarion, coll. « Tribal », 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série L'Agence Pinkerton</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'Agence Pinkerton, tome 1 : Le Châtiment des Hommes-tonnerre, Flammarion, 2011
 L'Agence Pinkerton, tome 2 : Le Rituel de l'ogre rouge, Flammarion, 2011
 L'Agence Pinkerton, tome 3 : Le Complot de la dernière aube, Flammarion, 2012
-L'Agence Pinkerton, tome 4 : Le Totem du peuple sans ombre, Flammarion, 2013
-Série Hercule
-L’Héritier de la foudre, Flammarion, 2011
+L'Agence Pinkerton, tome 4 : Le Totem du peuple sans ombre, Flammarion, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Hercule</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L’Héritier de la foudre, Flammarion, 2011
 La Sentence de Delphes, Flammarion, 2011
-La Révolte des Titans,  Flammarion, 2012
-Série Yakusa Gokudo
-Yakusa Gokudo, tome 1 : Les Otages du Dieu-dragon, Flammarion, 2013
-Autres ouvrages de littérature d'enfance et de jeunesse
-La Sorcière de midi, Rageot, coll. « Cascade policier », 1991
+La Révolte des Titans,  Flammarion, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Yakusa Gokudo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yakusa Gokudo, tome 1 : Les Otages du Dieu-dragon, Flammarion, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La Sorcière de midi, Rageot, coll. « Cascade policier », 1991
 Erwan le maudit, Rageot, coll. « Cascade pluriel », 1995 ; réédition, coll. « Cascade policier », 2006
 Le Prince d’ébène, Rageot, coll. « Cascade pluriel », 1996 ; réédition, Rageot, coll. « Cascade 11-13 », 2002 ; réédition, Rageot, coll. « Romans. Fantastique » no 124, 2006
 Le Coq à la crête d’or, Rageot, coll. « Cascade contes », 1993
@@ -655,9 +1170,43 @@
 Vingt mille lieues sous les mers, adaptation du récit de Jules Verne par Michel Honaker, Flammarion (coll. Jeunesse), 2013
 Carabosse : la légende des cinq royaumes, Flammarion, coll. « Grands Formats », 2014
 L'Île mystérieuse, adaptation du récit de Jules Verne par Michel Honaker, Flammarion (coll. Jeunesse), 2014
-Ghost City, Rageot, 2015
-Biographies de compositeurs
-Bach. La Cantate des anges, Rageot, coll. « Cascade Musique », 1996
+Ghost City, Rageot, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Biographies de compositeurs</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bach. La Cantate des anges, Rageot, coll. « Cascade Musique », 1996
 Beethoven. La Symphonie du destin, Rageot, coll. « Cascade Musique », 1996
 Chopin. Nocturne pour une passion, Rageot, coll. « Cascade Musique », 1996
 Haydn. Le Musicien des princes, Rageot, coll. « Cascade Musique », 1997
@@ -670,31 +1219,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Michel_Honaker</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Honaker</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1993 : Prix Totem pour Croisière en meurtre majeur (Rageot, 1993)
 1993 : Grand prix des lecteurs Je bouquine, pour Le Prince d'ébène
